--- a/data/pca/factorExposure/factorExposure_2018-12-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.08109382541558584</v>
+        <v>0.05346041182645129</v>
       </c>
       <c r="C2">
-        <v>0.05175316668688289</v>
+        <v>-0.03364445358219242</v>
       </c>
       <c r="D2">
-        <v>-0.06618618304340328</v>
+        <v>-0.005682598761246675</v>
       </c>
       <c r="E2">
-        <v>0.0004960578500802908</v>
+        <v>-0.03317060930252076</v>
       </c>
       <c r="F2">
-        <v>0.1167229278629057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1147439890320485</v>
+      </c>
+      <c r="G2">
+        <v>0.04857401911055408</v>
+      </c>
+      <c r="H2">
+        <v>-0.06923649408586723</v>
+      </c>
+      <c r="I2">
+        <v>0.1134184425884392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1644306995206241</v>
+        <v>0.1253471017382688</v>
       </c>
       <c r="C3">
-        <v>-0.054947673682985</v>
+        <v>-0.06369667712062065</v>
       </c>
       <c r="D3">
-        <v>-0.1540541713083943</v>
+        <v>0.02878835501419289</v>
       </c>
       <c r="E3">
-        <v>0.06447484497896321</v>
+        <v>0.03561736559291591</v>
       </c>
       <c r="F3">
-        <v>0.3885466498031935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3868492340231766</v>
+      </c>
+      <c r="G3">
+        <v>0.2672989444944547</v>
+      </c>
+      <c r="H3">
+        <v>-0.112671188906515</v>
+      </c>
+      <c r="I3">
+        <v>0.394210546680877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07481359113744777</v>
+        <v>0.05911341332194045</v>
       </c>
       <c r="C4">
-        <v>0.01731478277066107</v>
+        <v>-0.03669556149982789</v>
       </c>
       <c r="D4">
-        <v>-0.06861621867888981</v>
+        <v>0.03154344366675738</v>
       </c>
       <c r="E4">
-        <v>0.05436571914822543</v>
+        <v>-0.04421428478859054</v>
       </c>
       <c r="F4">
-        <v>0.06250482165912181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.0749874137453619</v>
+      </c>
+      <c r="G4">
+        <v>0.01959092955090889</v>
+      </c>
+      <c r="H4">
+        <v>-0.04804054111369731</v>
+      </c>
+      <c r="I4">
+        <v>0.06848465472998361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0008433926704440255</v>
+        <v>0.02799127561431993</v>
       </c>
       <c r="C6">
-        <v>-0.001617135144217263</v>
+        <v>-0.01325421942386729</v>
       </c>
       <c r="D6">
-        <v>0.0008711296237129586</v>
+        <v>0.009639447059469388</v>
       </c>
       <c r="E6">
-        <v>-0.001823192690351074</v>
+        <v>-0.008370842745885287</v>
       </c>
       <c r="F6">
-        <v>-0.003182789534099991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01157536700138062</v>
+      </c>
+      <c r="G6">
+        <v>-0.0193364852849917</v>
+      </c>
+      <c r="H6">
+        <v>0.01200222276783264</v>
+      </c>
+      <c r="I6">
+        <v>0.008345037249919621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03736246002326567</v>
+        <v>0.03186484644712703</v>
       </c>
       <c r="C7">
-        <v>0.01867808287875935</v>
+        <v>-0.0002166187448490385</v>
       </c>
       <c r="D7">
-        <v>-0.04937998762398209</v>
+        <v>0.03744638001100083</v>
       </c>
       <c r="E7">
-        <v>0.00934533299861532</v>
+        <v>-0.02756552910257532</v>
       </c>
       <c r="F7">
-        <v>0.08274154671740032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05529890650342431</v>
+      </c>
+      <c r="G7">
+        <v>0.04775667693659828</v>
+      </c>
+      <c r="H7">
+        <v>-0.01010842502688602</v>
+      </c>
+      <c r="I7">
+        <v>0.04549721274493562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03641234260865144</v>
+        <v>0.01559697188876505</v>
       </c>
       <c r="C8">
-        <v>-0.005829955003379739</v>
+        <v>-0.03335368217670694</v>
       </c>
       <c r="D8">
-        <v>-0.05643852812798317</v>
+        <v>0.02708001413537496</v>
       </c>
       <c r="E8">
-        <v>0.04920465431481812</v>
+        <v>-0.01771589082015674</v>
       </c>
       <c r="F8">
-        <v>0.06875696066760384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07145900502743574</v>
+      </c>
+      <c r="G8">
+        <v>0.04433193639725154</v>
+      </c>
+      <c r="H8">
+        <v>-0.04413352981859042</v>
+      </c>
+      <c r="I8">
+        <v>0.06593644470662703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.06261915682591691</v>
+        <v>0.05073800765620656</v>
       </c>
       <c r="C9">
-        <v>0.02319753630152001</v>
+        <v>-0.0265442175014793</v>
       </c>
       <c r="D9">
-        <v>-0.05410260318056948</v>
+        <v>0.02979143026860519</v>
       </c>
       <c r="E9">
-        <v>0.06482609509403447</v>
+        <v>-0.03677838130428646</v>
       </c>
       <c r="F9">
-        <v>0.05234267136239647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07912255303488198</v>
+      </c>
+      <c r="G9">
+        <v>0.01754755055022151</v>
+      </c>
+      <c r="H9">
+        <v>-0.05090796334266318</v>
+      </c>
+      <c r="I9">
+        <v>0.04327498048397136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03679398214362149</v>
+        <v>0.05552001924092279</v>
       </c>
       <c r="C10">
-        <v>0.06501730733803382</v>
+        <v>0.1451598250038757</v>
       </c>
       <c r="D10">
-        <v>0.1284085522867518</v>
+        <v>-0.07555444984447787</v>
       </c>
       <c r="E10">
-        <v>-0.07377285232492865</v>
+        <v>0.04554230519209414</v>
       </c>
       <c r="F10">
-        <v>0.06176485939250464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04892686693395141</v>
+      </c>
+      <c r="G10">
+        <v>0.01685772548117683</v>
+      </c>
+      <c r="H10">
+        <v>-0.03904006825340639</v>
+      </c>
+      <c r="I10">
+        <v>0.02495232539123264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05034008042230127</v>
+        <v>0.04246443882370556</v>
       </c>
       <c r="C11">
-        <v>-0.0005876553965648992</v>
+        <v>-0.03607151193449171</v>
       </c>
       <c r="D11">
-        <v>-0.03306606763314877</v>
+        <v>0.009650840771692924</v>
       </c>
       <c r="E11">
-        <v>0.009208143801889142</v>
+        <v>-0.01173134230520014</v>
       </c>
       <c r="F11">
-        <v>0.04785192290726459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03886871961865965</v>
+      </c>
+      <c r="G11">
+        <v>-0.002879836303845995</v>
+      </c>
+      <c r="H11">
+        <v>-0.01646192633693583</v>
+      </c>
+      <c r="I11">
+        <v>0.0406396131967332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04208322768585396</v>
+        <v>0.03977222197296388</v>
       </c>
       <c r="C12">
-        <v>-0.001524019569984754</v>
+        <v>-0.02871577341688414</v>
       </c>
       <c r="D12">
-        <v>-0.02850624065772487</v>
+        <v>0.0199790420993804</v>
       </c>
       <c r="E12">
-        <v>0.02730906732505931</v>
+        <v>-0.0137285937522068</v>
       </c>
       <c r="F12">
-        <v>0.03576227482882056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01710997520657872</v>
+      </c>
+      <c r="G12">
+        <v>0.004232005518770676</v>
+      </c>
+      <c r="H12">
+        <v>-0.009120032922429159</v>
+      </c>
+      <c r="I12">
+        <v>0.02888476044726017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04450966628294719</v>
+        <v>0.03491354805174909</v>
       </c>
       <c r="C13">
-        <v>0.008386203861426751</v>
+        <v>-0.02755696830727579</v>
       </c>
       <c r="D13">
-        <v>-0.05041301057070335</v>
+        <v>-0.004734987890589646</v>
       </c>
       <c r="E13">
-        <v>-0.009866704320940382</v>
+        <v>-0.009048990479847455</v>
       </c>
       <c r="F13">
-        <v>0.1119097327397545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09459741656916992</v>
+      </c>
+      <c r="G13">
+        <v>0.03231518717455261</v>
+      </c>
+      <c r="H13">
+        <v>-0.03974999995933581</v>
+      </c>
+      <c r="I13">
+        <v>0.08143984560023643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02448059694733614</v>
+        <v>0.0207971325651349</v>
       </c>
       <c r="C14">
-        <v>0.01485628323130831</v>
+        <v>-0.01436826290813577</v>
       </c>
       <c r="D14">
-        <v>-0.0444077223036843</v>
+        <v>0.01186227987285902</v>
       </c>
       <c r="E14">
-        <v>0.01835782149629912</v>
+        <v>-0.0282724826074908</v>
       </c>
       <c r="F14">
-        <v>0.03380493499976715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.04072032408926712</v>
+      </c>
+      <c r="G14">
+        <v>0.05565209314743699</v>
+      </c>
+      <c r="H14">
+        <v>-0.02779691596366678</v>
+      </c>
+      <c r="I14">
+        <v>0.02151993492832883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04104758084231077</v>
+        <v>0.03608599181734541</v>
       </c>
       <c r="C16">
-        <v>-0.005910614157878013</v>
+        <v>-0.03293032151202201</v>
       </c>
       <c r="D16">
-        <v>-0.03043151771523137</v>
+        <v>0.0143846295734039</v>
       </c>
       <c r="E16">
-        <v>0.0128210484349836</v>
+        <v>-0.009795694212234021</v>
       </c>
       <c r="F16">
-        <v>0.03777855695749532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03438511988487461</v>
+      </c>
+      <c r="G16">
+        <v>0.004498557348959075</v>
+      </c>
+      <c r="H16">
+        <v>-0.009731234815832504</v>
+      </c>
+      <c r="I16">
+        <v>0.04013701732738404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05708964993997035</v>
+        <v>0.04429956317131846</v>
       </c>
       <c r="C19">
-        <v>-0.01440194789170916</v>
+        <v>-0.04148674056404698</v>
       </c>
       <c r="D19">
-        <v>-0.05406466925763213</v>
+        <v>0.01336328652188002</v>
       </c>
       <c r="E19">
-        <v>0.01525965106349441</v>
+        <v>-0.01415847943342305</v>
       </c>
       <c r="F19">
-        <v>0.09937014062038375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09517589566061757</v>
+      </c>
+      <c r="G19">
+        <v>0.04766507961031138</v>
+      </c>
+      <c r="H19">
+        <v>-0.0331527791072651</v>
+      </c>
+      <c r="I19">
+        <v>0.08501400993036663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.01709067404008161</v>
+        <v>0.01222052032630818</v>
       </c>
       <c r="C20">
-        <v>0.0120706778760435</v>
+        <v>-0.01571206067685916</v>
       </c>
       <c r="D20">
-        <v>-0.04479248412522688</v>
+        <v>0.01190090671346454</v>
       </c>
       <c r="E20">
-        <v>0.03377984163405752</v>
+        <v>-0.01882355470408266</v>
       </c>
       <c r="F20">
-        <v>0.07160863451884307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06184311612724665</v>
+      </c>
+      <c r="G20">
+        <v>0.06229118335191017</v>
+      </c>
+      <c r="H20">
+        <v>-0.02100306765895624</v>
+      </c>
+      <c r="I20">
+        <v>0.07711455041259779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0192698345503448</v>
+        <v>0.02659449925596841</v>
       </c>
       <c r="C21">
-        <v>-0.01120678188832667</v>
+        <v>-0.01771004443978342</v>
       </c>
       <c r="D21">
-        <v>-0.04450385756460056</v>
+        <v>0.02005622885172793</v>
       </c>
       <c r="E21">
-        <v>0.01269239780333467</v>
+        <v>-0.00742288489386383</v>
       </c>
       <c r="F21">
-        <v>0.09068113891418993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07217257370330478</v>
+      </c>
+      <c r="G21">
+        <v>0.01121112512224991</v>
+      </c>
+      <c r="H21">
+        <v>-0.05424367618867266</v>
+      </c>
+      <c r="I21">
+        <v>0.01282297712672349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03978129079934441</v>
+        <v>0.0344940293690358</v>
       </c>
       <c r="C24">
-        <v>-0.002367064758009589</v>
+        <v>-0.0286458365022123</v>
       </c>
       <c r="D24">
-        <v>-0.02974669376831327</v>
+        <v>0.01307789769635382</v>
       </c>
       <c r="E24">
-        <v>0.0163150963778722</v>
+        <v>-0.0110862579835435</v>
       </c>
       <c r="F24">
-        <v>0.04661653990363213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03690310760527471</v>
+      </c>
+      <c r="G24">
+        <v>0.0002765469559125411</v>
+      </c>
+      <c r="H24">
+        <v>-0.01091129731970279</v>
+      </c>
+      <c r="I24">
+        <v>0.0428375065508972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04157999313397633</v>
+        <v>0.04224768848281681</v>
       </c>
       <c r="C25">
-        <v>0.0008979744308681569</v>
+        <v>-0.0280329816051172</v>
       </c>
       <c r="D25">
-        <v>-0.02973607170220366</v>
+        <v>0.01182497062442903</v>
       </c>
       <c r="E25">
-        <v>0.01755305445202006</v>
+        <v>-0.01219742996478983</v>
       </c>
       <c r="F25">
-        <v>0.04644609240298191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04609732368958162</v>
+      </c>
+      <c r="G25">
+        <v>-0.008318644379007888</v>
+      </c>
+      <c r="H25">
+        <v>-0.01535125611290199</v>
+      </c>
+      <c r="I25">
+        <v>0.03650606755907629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01869022726387514</v>
+        <v>0.0115281567694818</v>
       </c>
       <c r="C26">
-        <v>-0.006807810354504361</v>
+        <v>-0.02577668324628424</v>
       </c>
       <c r="D26">
-        <v>-0.05472057456330195</v>
+        <v>0.006359900815826761</v>
       </c>
       <c r="E26">
-        <v>-0.0009756789569382451</v>
+        <v>-0.002622691302955425</v>
       </c>
       <c r="F26">
-        <v>0.03653614600812326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04596988641465801</v>
+      </c>
+      <c r="G26">
+        <v>0.03089885132806337</v>
+      </c>
+      <c r="H26">
+        <v>-0.01830556640728847</v>
+      </c>
+      <c r="I26">
+        <v>0.0392344261197005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.106509465166411</v>
+        <v>0.06121205348125815</v>
       </c>
       <c r="C27">
-        <v>0.02976794225632162</v>
+        <v>-0.01846423086827526</v>
       </c>
       <c r="D27">
-        <v>-0.04641338054441375</v>
+        <v>0.01064184149166954</v>
       </c>
       <c r="E27">
-        <v>0.04170113359956044</v>
+        <v>-0.0288458235697375</v>
       </c>
       <c r="F27">
-        <v>0.05960520404959939</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.04810065904394056</v>
+      </c>
+      <c r="G27">
+        <v>0.03269158766702989</v>
+      </c>
+      <c r="H27">
+        <v>-0.03054057862262132</v>
+      </c>
+      <c r="I27">
+        <v>0.02420041748493502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05117881062719341</v>
+        <v>0.08099872871522534</v>
       </c>
       <c r="C28">
-        <v>0.08337202311089206</v>
+        <v>0.2226606982193078</v>
       </c>
       <c r="D28">
-        <v>0.213436464266381</v>
+        <v>-0.1064172885799475</v>
       </c>
       <c r="E28">
-        <v>-0.1027435826157707</v>
+        <v>0.06697110396141584</v>
       </c>
       <c r="F28">
-        <v>0.03611801170762664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.02756033479822447</v>
+      </c>
+      <c r="G28">
+        <v>0.03822160047613953</v>
+      </c>
+      <c r="H28">
+        <v>-0.03660617707105417</v>
+      </c>
+      <c r="I28">
+        <v>0.04304164002241513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02522105267067349</v>
+        <v>0.02069604213815901</v>
       </c>
       <c r="C29">
-        <v>0.01210269179606966</v>
+        <v>-0.01487716058635389</v>
       </c>
       <c r="D29">
-        <v>-0.04455122033562114</v>
+        <v>0.01511851758965606</v>
       </c>
       <c r="E29">
-        <v>0.03089531376406327</v>
+        <v>-0.03067480970173897</v>
       </c>
       <c r="F29">
-        <v>0.02459838207925499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03633003595794093</v>
+      </c>
+      <c r="G29">
+        <v>0.05581050626112473</v>
+      </c>
+      <c r="H29">
+        <v>-0.03169612367011736</v>
+      </c>
+      <c r="I29">
+        <v>0.005508615889082902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1014975949106747</v>
+        <v>0.08230057776443647</v>
       </c>
       <c r="C30">
-        <v>0.03533976921419551</v>
+        <v>-0.06756076668583402</v>
       </c>
       <c r="D30">
-        <v>-0.06926199877110845</v>
+        <v>-0.0149339341361865</v>
       </c>
       <c r="E30">
-        <v>0.02367190650163879</v>
+        <v>-0.04045287697872223</v>
       </c>
       <c r="F30">
-        <v>0.1106466407965524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1039242908839386</v>
+      </c>
+      <c r="G30">
+        <v>0.01940370241673865</v>
+      </c>
+      <c r="H30">
+        <v>-0.001352023502845077</v>
+      </c>
+      <c r="I30">
+        <v>0.03069978215533636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06083240830503801</v>
+        <v>0.05591778153269029</v>
       </c>
       <c r="C31">
-        <v>0.0150794149836413</v>
+        <v>-0.0204771527364676</v>
       </c>
       <c r="D31">
-        <v>-0.03442661459783861</v>
+        <v>-0.001293913080680256</v>
       </c>
       <c r="E31">
-        <v>-0.02785582302244117</v>
+        <v>-0.02167013283375727</v>
       </c>
       <c r="F31">
-        <v>-0.01669393180234614</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001651751310453149</v>
+      </c>
+      <c r="G31">
+        <v>0.03977463399063592</v>
+      </c>
+      <c r="H31">
+        <v>-0.05200265871287733</v>
+      </c>
+      <c r="I31">
+        <v>0.01581671383157571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.04923981302685989</v>
+        <v>0.02831325102247729</v>
       </c>
       <c r="C32">
-        <v>0.004200868326121533</v>
+        <v>-0.0303463435001819</v>
       </c>
       <c r="D32">
-        <v>-0.0576152602166566</v>
+        <v>0.03119189083412162</v>
       </c>
       <c r="E32">
-        <v>0.03821459976042738</v>
+        <v>-0.03763148870617007</v>
       </c>
       <c r="F32">
-        <v>0.08155919937987004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07359263138986401</v>
+      </c>
+      <c r="G32">
+        <v>0.03119951904539014</v>
+      </c>
+      <c r="H32">
+        <v>-0.0341810009603143</v>
+      </c>
+      <c r="I32">
+        <v>0.05996150679373244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.04913886539872645</v>
+        <v>0.04349327750702509</v>
       </c>
       <c r="C33">
-        <v>-0.007094611841752823</v>
+        <v>-0.05580453396645985</v>
       </c>
       <c r="D33">
-        <v>-0.08009649839398213</v>
+        <v>0.003483309770105825</v>
       </c>
       <c r="E33">
-        <v>0.01760061767979137</v>
+        <v>-0.009633866181425629</v>
       </c>
       <c r="F33">
-        <v>0.06485368674913665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0715859719676803</v>
+      </c>
+      <c r="G33">
+        <v>0.03824088052199771</v>
+      </c>
+      <c r="H33">
+        <v>-0.04585600407827127</v>
+      </c>
+      <c r="I33">
+        <v>0.04371364382951019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04025720448192457</v>
+        <v>0.03709377767072436</v>
       </c>
       <c r="C34">
-        <v>0.005912755253663551</v>
+        <v>-0.03006369390293534</v>
       </c>
       <c r="D34">
-        <v>-0.03527393215378683</v>
+        <v>0.01892589731285709</v>
       </c>
       <c r="E34">
-        <v>0.01880690127113244</v>
+        <v>-0.02153480938437433</v>
       </c>
       <c r="F34">
-        <v>0.03912177654608617</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03858872200151174</v>
+      </c>
+      <c r="G34">
+        <v>-0.0002935625000143592</v>
+      </c>
+      <c r="H34">
+        <v>-0.0128420251396497</v>
+      </c>
+      <c r="I34">
+        <v>0.04155506182512344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01256207587796078</v>
+        <v>0.0156311609788241</v>
       </c>
       <c r="C36">
-        <v>0.01100041802247848</v>
+        <v>-0.0003565789083745983</v>
       </c>
       <c r="D36">
-        <v>-0.01226149665244807</v>
+        <v>0.003749392194236564</v>
       </c>
       <c r="E36">
-        <v>0.01104180464147923</v>
+        <v>-0.01019115592054276</v>
       </c>
       <c r="F36">
-        <v>0.02222331847966049</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02721361725657218</v>
+      </c>
+      <c r="G36">
+        <v>0.02972403999748627</v>
+      </c>
+      <c r="H36">
+        <v>-0.03060418740860794</v>
+      </c>
+      <c r="I36">
+        <v>-0.006372895055842328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.02295938970698709</v>
+        <v>0.025148764248452</v>
       </c>
       <c r="C38">
-        <v>0.00692268647156729</v>
+        <v>-0.002903543546217576</v>
       </c>
       <c r="D38">
-        <v>0.004900323805301141</v>
+        <v>0.005927052842739944</v>
       </c>
       <c r="E38">
-        <v>0.01052761632390237</v>
+        <v>-0.003643763196714498</v>
       </c>
       <c r="F38">
-        <v>0.01442444446866554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04185457565923084</v>
+      </c>
+      <c r="G38">
+        <v>0.01187666026279097</v>
+      </c>
+      <c r="H38">
+        <v>-0.03342543338282365</v>
+      </c>
+      <c r="I38">
+        <v>0.0004440308513818935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.0614638620816462</v>
+        <v>0.04664991369705743</v>
       </c>
       <c r="C39">
-        <v>0.007496858625288385</v>
+        <v>-0.0511596112371859</v>
       </c>
       <c r="D39">
-        <v>-0.04902527796105551</v>
+        <v>0.01646758397047359</v>
       </c>
       <c r="E39">
-        <v>0.006463532627097841</v>
+        <v>-0.02602238285159431</v>
       </c>
       <c r="F39">
-        <v>0.03853808215411388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05586245200053822</v>
+      </c>
+      <c r="G39">
+        <v>-0.008314256430100881</v>
+      </c>
+      <c r="H39">
+        <v>-0.02580101601842174</v>
+      </c>
+      <c r="I39">
+        <v>0.02390084396965312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.05336687016954289</v>
+        <v>0.0449106192375368</v>
       </c>
       <c r="C40">
-        <v>0.02516567496508677</v>
+        <v>-0.04595437143848744</v>
       </c>
       <c r="D40">
-        <v>-0.07404097415381308</v>
+        <v>-0.00400847011099729</v>
       </c>
       <c r="E40">
-        <v>-0.01068647466636579</v>
+        <v>-0.02820298904279656</v>
       </c>
       <c r="F40">
-        <v>0.08854429400765365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.08218492204648195</v>
+      </c>
+      <c r="G40">
+        <v>0.03091766975526879</v>
+      </c>
+      <c r="H40">
+        <v>-0.03780369182427148</v>
+      </c>
+      <c r="I40">
+        <v>0.1163470702072837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.00803316314969668</v>
+        <v>-0.0001489878661902762</v>
       </c>
       <c r="C41">
-        <v>0.001832246624009109</v>
+        <v>-0.003347110738290304</v>
       </c>
       <c r="D41">
-        <v>-0.02840206579466927</v>
+        <v>0.0003309411720483512</v>
       </c>
       <c r="E41">
-        <v>0.01020933481235542</v>
+        <v>-0.007635889879239473</v>
       </c>
       <c r="F41">
-        <v>-0.01166056881989746</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006743523489951234</v>
+      </c>
+      <c r="G41">
+        <v>0.03873045764390385</v>
+      </c>
+      <c r="H41">
+        <v>-0.0454552731990721</v>
+      </c>
+      <c r="I41">
+        <v>0.001049520801521722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2593905874813504</v>
+        <v>0.2039678698273078</v>
       </c>
       <c r="C42">
-        <v>-0.9094502195317463</v>
+        <v>-0.3236959747496468</v>
       </c>
       <c r="D42">
-        <v>0.1288210557730588</v>
+        <v>0.122333342712054</v>
       </c>
       <c r="E42">
-        <v>-0.23147308786333</v>
+        <v>0.8835624846013871</v>
       </c>
       <c r="F42">
-        <v>-0.03804636264044364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1690472032273185</v>
+      </c>
+      <c r="G42">
+        <v>-0.00623277825986614</v>
+      </c>
+      <c r="H42">
+        <v>0.008014930378732278</v>
+      </c>
+      <c r="I42">
+        <v>0.03264461722513756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007629513487140577</v>
+        <v>0.00244641457961607</v>
       </c>
       <c r="C43">
-        <v>0.001363039245749783</v>
+        <v>-0.006086037320235689</v>
       </c>
       <c r="D43">
-        <v>-0.0305811525897503</v>
+        <v>-0.001121061225100392</v>
       </c>
       <c r="E43">
-        <v>0.005694257871268761</v>
+        <v>-0.005535316766737552</v>
       </c>
       <c r="F43">
-        <v>0.01853420499261866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01840130642206281</v>
+      </c>
+      <c r="G43">
+        <v>0.03350839697444329</v>
+      </c>
+      <c r="H43">
+        <v>-0.02715619486434768</v>
+      </c>
+      <c r="I43">
+        <v>0.0107801770173104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02681915692049861</v>
+        <v>0.01890290681589952</v>
       </c>
       <c r="C44">
-        <v>-0.001830217931301828</v>
+        <v>-0.03104770900644372</v>
       </c>
       <c r="D44">
-        <v>-0.0712289356646868</v>
+        <v>0.01507640922915152</v>
       </c>
       <c r="E44">
-        <v>0.02470981064923563</v>
+        <v>-0.01277009987970753</v>
       </c>
       <c r="F44">
-        <v>0.1114231772181474</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1163408749899662</v>
+      </c>
+      <c r="G44">
+        <v>0.0836872764371618</v>
+      </c>
+      <c r="H44">
+        <v>-0.06966104763974629</v>
+      </c>
+      <c r="I44">
+        <v>0.06308530602044884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02782919757215735</v>
+        <v>0.02027425078765355</v>
       </c>
       <c r="C46">
-        <v>0.007854518363009572</v>
+        <v>-0.03070387461323992</v>
       </c>
       <c r="D46">
-        <v>-0.05278685390971263</v>
+        <v>0.008408034111200433</v>
       </c>
       <c r="E46">
-        <v>0.01488686045154774</v>
+        <v>-0.03247516528146528</v>
       </c>
       <c r="F46">
-        <v>0.01457357495273859</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04669964933551385</v>
+      </c>
+      <c r="G46">
+        <v>0.057380925143943</v>
+      </c>
+      <c r="H46">
+        <v>-0.03174985838086104</v>
+      </c>
+      <c r="I46">
+        <v>0.0100050245826829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0862680271476247</v>
+        <v>0.08167982438781758</v>
       </c>
       <c r="C47">
-        <v>0.01945808807139798</v>
+        <v>-0.02633507434969166</v>
       </c>
       <c r="D47">
-        <v>-0.03960185634447286</v>
+        <v>0.007926317498153092</v>
       </c>
       <c r="E47">
-        <v>0.01513858935394232</v>
+        <v>-0.03095840232010954</v>
       </c>
       <c r="F47">
-        <v>-0.02089881788466812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01857855823678783</v>
+      </c>
+      <c r="G47">
+        <v>0.06720775479223653</v>
+      </c>
+      <c r="H47">
+        <v>-0.04442360996389211</v>
+      </c>
+      <c r="I47">
+        <v>0.02817139583300998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01279495834413916</v>
+        <v>0.01909023373918989</v>
       </c>
       <c r="C48">
-        <v>0.006816509942079911</v>
+        <v>-0.01127009304964561</v>
       </c>
       <c r="D48">
-        <v>-0.03403812299234791</v>
+        <v>0.005361829786748188</v>
       </c>
       <c r="E48">
-        <v>0.01285776318345181</v>
+        <v>-0.01448570109513221</v>
       </c>
       <c r="F48">
-        <v>0.02617008610795235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02929744841343174</v>
+      </c>
+      <c r="G48">
+        <v>0.02284760321770368</v>
+      </c>
+      <c r="H48">
+        <v>-0.02324595201171407</v>
+      </c>
+      <c r="I48">
+        <v>0.01204121780940371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08613780860770394</v>
+        <v>0.08191781026209065</v>
       </c>
       <c r="C50">
-        <v>0.005466330236121242</v>
+        <v>-0.03431662839523359</v>
       </c>
       <c r="D50">
-        <v>-0.04123532213930628</v>
+        <v>0.0246593842971285</v>
       </c>
       <c r="E50">
-        <v>-0.004511244170277966</v>
+        <v>-0.02303063909344567</v>
       </c>
       <c r="F50">
-        <v>-0.01014052028741114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.00530620183879309</v>
+      </c>
+      <c r="G50">
+        <v>0.04783961282077314</v>
+      </c>
+      <c r="H50">
+        <v>-0.003319761296125998</v>
+      </c>
+      <c r="I50">
+        <v>-0.007070548889754689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05424409205650239</v>
+        <v>0.03841448523424099</v>
       </c>
       <c r="C51">
-        <v>0.01445870556436137</v>
+        <v>-0.003430812120554963</v>
       </c>
       <c r="D51">
-        <v>-0.03313057279850304</v>
+        <v>-0.01217053617341608</v>
       </c>
       <c r="E51">
-        <v>-0.02824209222777439</v>
+        <v>-0.006831066046696211</v>
       </c>
       <c r="F51">
-        <v>0.05663896641837423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08324251355080159</v>
+      </c>
+      <c r="G51">
+        <v>0.05757921106186863</v>
+      </c>
+      <c r="H51">
+        <v>-0.07015704591896871</v>
+      </c>
+      <c r="I51">
+        <v>0.04043667483843778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1232217492662081</v>
+        <v>0.1129689144486836</v>
       </c>
       <c r="C53">
-        <v>0.02771566264408042</v>
+        <v>-0.04708554538344978</v>
       </c>
       <c r="D53">
-        <v>-0.06188590150167658</v>
+        <v>0.01522462330715924</v>
       </c>
       <c r="E53">
-        <v>0.002006067271410393</v>
+        <v>-0.05712747768080696</v>
       </c>
       <c r="F53">
-        <v>-0.07489433313092216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05860597679230924</v>
+      </c>
+      <c r="G53">
+        <v>0.02588893289600348</v>
+      </c>
+      <c r="H53">
+        <v>-0.0258541089722706</v>
+      </c>
+      <c r="I53">
+        <v>0.02592811559832542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02243121516831146</v>
+        <v>0.02427624810137399</v>
       </c>
       <c r="C54">
-        <v>0.0197797769712738</v>
+        <v>-0.001332657570597033</v>
       </c>
       <c r="D54">
-        <v>-0.03046112002952961</v>
+        <v>0.005065748990591106</v>
       </c>
       <c r="E54">
-        <v>0.01828527622852146</v>
+        <v>-0.02992615993817194</v>
       </c>
       <c r="F54">
-        <v>0.03344248676230246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03468905606980878</v>
+      </c>
+      <c r="G54">
+        <v>0.0530551301215654</v>
+      </c>
+      <c r="H54">
+        <v>-0.04104559148556149</v>
+      </c>
+      <c r="I54">
+        <v>0.001865669656463538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1047192049849898</v>
+        <v>0.09286645546646635</v>
       </c>
       <c r="C55">
-        <v>0.01900193329318086</v>
+        <v>-0.03773258479939989</v>
       </c>
       <c r="D55">
-        <v>-0.01969675511390445</v>
+        <v>0.02964657013313004</v>
       </c>
       <c r="E55">
-        <v>0.0403127498451127</v>
+        <v>-0.04289515707573249</v>
       </c>
       <c r="F55">
-        <v>-0.0289217483050161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0426925177263633</v>
+      </c>
+      <c r="G55">
+        <v>0.04342291121988639</v>
+      </c>
+      <c r="H55">
+        <v>0.005766910909269914</v>
+      </c>
+      <c r="I55">
+        <v>0.008636633891001914</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.161876287513256</v>
+        <v>0.155431049832092</v>
       </c>
       <c r="C56">
-        <v>0.07657274835367398</v>
+        <v>-0.04012272373326637</v>
       </c>
       <c r="D56">
-        <v>-0.03754069321726824</v>
+        <v>0.01475039164587487</v>
       </c>
       <c r="E56">
-        <v>0.02129523575228556</v>
+        <v>-0.09272542916338516</v>
       </c>
       <c r="F56">
-        <v>-0.1121151220044698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.100707547364252</v>
+      </c>
+      <c r="G56">
+        <v>-0.009585685433067414</v>
+      </c>
+      <c r="H56">
+        <v>0.02660475113256472</v>
+      </c>
+      <c r="I56">
+        <v>0.02428375134097985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06438284523033136</v>
+        <v>0.0545192521878923</v>
       </c>
       <c r="C57">
-        <v>0.0115449620973181</v>
+        <v>-0.03476164944648463</v>
       </c>
       <c r="D57">
-        <v>-0.0547494295435936</v>
+        <v>-0.004294489615244049</v>
       </c>
       <c r="E57">
-        <v>-0.008416704928367061</v>
+        <v>-0.006169055437680406</v>
       </c>
       <c r="F57">
-        <v>0.05519943737372237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06290615468036838</v>
+      </c>
+      <c r="G57">
+        <v>0.0181499377481783</v>
+      </c>
+      <c r="H57">
+        <v>-0.02604108212182215</v>
+      </c>
+      <c r="I57">
+        <v>0.0348339520461598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1905080958988339</v>
+        <v>0.1894619672653458</v>
       </c>
       <c r="C58">
-        <v>0.0004601616217866162</v>
+        <v>-0.1574542387114967</v>
       </c>
       <c r="D58">
-        <v>-0.1237528258186869</v>
+        <v>-0.0331444569611589</v>
       </c>
       <c r="E58">
-        <v>0.00966183601650538</v>
+        <v>0.0225432530251727</v>
       </c>
       <c r="F58">
-        <v>0.2434027694600261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.3799165339680069</v>
+      </c>
+      <c r="G58">
+        <v>0.3800417716497018</v>
+      </c>
+      <c r="H58">
+        <v>0.2508791912219358</v>
+      </c>
+      <c r="I58">
+        <v>-0.7152624887859981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.05934049927981912</v>
+        <v>0.0892891619731709</v>
       </c>
       <c r="C59">
-        <v>0.1015713475670324</v>
+        <v>0.1817629389919873</v>
       </c>
       <c r="D59">
-        <v>0.1475896151690896</v>
+        <v>-0.1049249509148739</v>
       </c>
       <c r="E59">
-        <v>-0.06381157660102908</v>
+        <v>0.02599512664417968</v>
       </c>
       <c r="F59">
-        <v>0.04320968347408724</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.05369485673103531</v>
+      </c>
+      <c r="G59">
+        <v>0.00813192844309552</v>
+      </c>
+      <c r="H59">
+        <v>-0.02474433576846631</v>
+      </c>
+      <c r="I59">
+        <v>0.01302907201037547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1842670957309358</v>
+        <v>0.2006226288381196</v>
       </c>
       <c r="C60">
-        <v>0.06311892321254287</v>
+        <v>0.002865055090079242</v>
       </c>
       <c r="D60">
-        <v>0.004647338357434363</v>
+        <v>-0.06412272196748821</v>
       </c>
       <c r="E60">
-        <v>-0.07927722615432004</v>
+        <v>-0.01842036321296138</v>
       </c>
       <c r="F60">
-        <v>0.1471557181804735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1873260232049704</v>
+      </c>
+      <c r="G60">
+        <v>-0.349481172546654</v>
+      </c>
+      <c r="H60">
+        <v>0.04278921466569804</v>
+      </c>
+      <c r="I60">
+        <v>0.03119154374005317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03166908471791026</v>
+        <v>0.03472313337251504</v>
       </c>
       <c r="C61">
-        <v>0.003476104769289971</v>
+        <v>-0.03236485764944946</v>
       </c>
       <c r="D61">
-        <v>-0.02536601242495468</v>
+        <v>0.01561438328131896</v>
       </c>
       <c r="E61">
-        <v>0.01871208522763477</v>
+        <v>-0.01917045901112023</v>
       </c>
       <c r="F61">
-        <v>0.03985993562045426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03976202921891535</v>
+      </c>
+      <c r="G61">
+        <v>-0.01666481621659565</v>
+      </c>
+      <c r="H61">
+        <v>-0.01303459840835596</v>
+      </c>
+      <c r="I61">
+        <v>0.01216835825991854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02835424607397459</v>
+        <v>0.02481261107898449</v>
       </c>
       <c r="C63">
-        <v>0.01275552916760576</v>
+        <v>-0.02255564816195905</v>
       </c>
       <c r="D63">
-        <v>-0.03977999805185449</v>
+        <v>0.008723532675840461</v>
       </c>
       <c r="E63">
-        <v>0.01325585845554886</v>
+        <v>-0.01884331581261809</v>
       </c>
       <c r="F63">
-        <v>0.04213209774165069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03020767073741911</v>
+      </c>
+      <c r="G63">
+        <v>0.04944512877014033</v>
+      </c>
+      <c r="H63">
+        <v>-0.01463818030761181</v>
+      </c>
+      <c r="I63">
+        <v>0.02790446141782369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05232688467715802</v>
+        <v>0.05193715890561981</v>
       </c>
       <c r="C64">
-        <v>0.00669383393992254</v>
+        <v>-0.03340870795917411</v>
       </c>
       <c r="D64">
-        <v>-0.052829463412349</v>
+        <v>0.02727266914188642</v>
       </c>
       <c r="E64">
-        <v>0.0551522530996351</v>
+        <v>-0.02661289978674048</v>
       </c>
       <c r="F64">
-        <v>0.03872627207550406</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04151332958237083</v>
+      </c>
+      <c r="G64">
+        <v>0.0214196592784824</v>
+      </c>
+      <c r="H64">
+        <v>-0.07066566493841016</v>
+      </c>
+      <c r="I64">
+        <v>0.05345810269575837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0008904464627718125</v>
+        <v>0.031498233748746</v>
       </c>
       <c r="C65">
-        <v>-0.002749020911688009</v>
+        <v>-0.01359526455869289</v>
       </c>
       <c r="D65">
-        <v>0.001252577440661042</v>
+        <v>0.009849165244604477</v>
       </c>
       <c r="E65">
-        <v>-0.001921464670155542</v>
+        <v>-0.008445056070818484</v>
       </c>
       <c r="F65">
-        <v>-0.003136050265174663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.008648450582049255</v>
+      </c>
+      <c r="G65">
+        <v>-0.0239758315978211</v>
+      </c>
+      <c r="H65">
+        <v>0.01007228625415877</v>
+      </c>
+      <c r="I65">
+        <v>0.008270386843197575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.06028967148300406</v>
+        <v>0.05588049797182554</v>
       </c>
       <c r="C66">
-        <v>0.02228365750039437</v>
+        <v>-0.06089874389310953</v>
       </c>
       <c r="D66">
-        <v>-0.0691521486444467</v>
+        <v>0.01222707794692093</v>
       </c>
       <c r="E66">
-        <v>0.03058071114119461</v>
+        <v>-0.05202364339527603</v>
       </c>
       <c r="F66">
-        <v>0.07789713838461305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07050717621430933</v>
+      </c>
+      <c r="G66">
+        <v>-0.01494210297006729</v>
+      </c>
+      <c r="H66">
+        <v>-0.01095249095341803</v>
+      </c>
+      <c r="I66">
+        <v>0.06529136101364855</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.04178657345307198</v>
+        <v>0.0435934566709344</v>
       </c>
       <c r="C67">
-        <v>0.01401951186493567</v>
+        <v>0.004701421267801122</v>
       </c>
       <c r="D67">
-        <v>0.01778039322313207</v>
+        <v>-0.002658795589217078</v>
       </c>
       <c r="E67">
-        <v>-0.003187222069477012</v>
+        <v>-0.005529147751611558</v>
       </c>
       <c r="F67">
-        <v>0.01906600452674699</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03325183919021947</v>
+      </c>
+      <c r="G67">
+        <v>-0.01336170919482375</v>
+      </c>
+      <c r="H67">
+        <v>-0.04410004337373448</v>
+      </c>
+      <c r="I67">
+        <v>-0.003920847483360826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06791434741418083</v>
+        <v>0.08606712264582501</v>
       </c>
       <c r="C68">
-        <v>0.08854652618811661</v>
+        <v>0.2073527308046901</v>
       </c>
       <c r="D68">
-        <v>0.2078279874293924</v>
+        <v>-0.1117906084384284</v>
       </c>
       <c r="E68">
-        <v>-0.09381947470740291</v>
+        <v>0.05667069071352893</v>
       </c>
       <c r="F68">
-        <v>0.01644655028217469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.007412118498198666</v>
+      </c>
+      <c r="G68">
+        <v>0.041897644119546</v>
+      </c>
+      <c r="H68">
+        <v>0.01216828195777139</v>
+      </c>
+      <c r="I68">
+        <v>-0.02172856901411143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07106283429665915</v>
+        <v>0.06739150250383201</v>
       </c>
       <c r="C69">
-        <v>0.02337867261831281</v>
+        <v>-0.02294740922092338</v>
       </c>
       <c r="D69">
-        <v>-0.02490460074488986</v>
+        <v>0.003046351688942639</v>
       </c>
       <c r="E69">
-        <v>-0.001544765920019096</v>
+        <v>-0.03151267106322219</v>
       </c>
       <c r="F69">
-        <v>-0.006507717851144386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004684346691552391</v>
+      </c>
+      <c r="G69">
+        <v>0.04181760055739676</v>
+      </c>
+      <c r="H69">
+        <v>-0.03513752148976643</v>
+      </c>
+      <c r="I69">
+        <v>0.02181356305470845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06984782114391941</v>
+        <v>0.08640063346423293</v>
       </c>
       <c r="C71">
-        <v>0.1131679525941156</v>
+        <v>0.2241600312186609</v>
       </c>
       <c r="D71">
-        <v>0.2464919022528245</v>
+        <v>-0.1257482522107611</v>
       </c>
       <c r="E71">
-        <v>-0.1528313591027059</v>
+        <v>0.07085208469691735</v>
       </c>
       <c r="F71">
-        <v>0.06382430193725813</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03499950854367768</v>
+      </c>
+      <c r="G71">
+        <v>0.02260628403544346</v>
+      </c>
+      <c r="H71">
+        <v>-0.01381381171471789</v>
+      </c>
+      <c r="I71">
+        <v>0.003449193336481587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1253751420926687</v>
+        <v>0.1318139166725423</v>
       </c>
       <c r="C72">
-        <v>0.07114850354586867</v>
+        <v>-0.05503661588116943</v>
       </c>
       <c r="D72">
-        <v>-0.04259938574090013</v>
+        <v>0.006104129684745193</v>
       </c>
       <c r="E72">
-        <v>0.01852803892700132</v>
+        <v>-0.08833467349908083</v>
       </c>
       <c r="F72">
-        <v>0.07877236008021019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09902276842645903</v>
+      </c>
+      <c r="G72">
+        <v>-0.09506350578224804</v>
+      </c>
+      <c r="H72">
+        <v>0.0135561507059916</v>
+      </c>
+      <c r="I72">
+        <v>-0.1424038413422042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2847822930714261</v>
+        <v>0.2867016736811984</v>
       </c>
       <c r="C73">
-        <v>0.0841220768464034</v>
+        <v>-0.01464661207449745</v>
       </c>
       <c r="D73">
-        <v>0.04750101924795123</v>
+        <v>-0.09763301098609192</v>
       </c>
       <c r="E73">
-        <v>-0.1092166945916519</v>
+        <v>0.0191558505233574</v>
       </c>
       <c r="F73">
-        <v>0.2545619297502297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2664170887307579</v>
+      </c>
+      <c r="G73">
+        <v>-0.5240284473894152</v>
+      </c>
+      <c r="H73">
+        <v>0.1167330034041499</v>
+      </c>
+      <c r="I73">
+        <v>-0.008787872524570696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1469176233924148</v>
+        <v>0.1397531834324429</v>
       </c>
       <c r="C74">
-        <v>0.02725406750106403</v>
+        <v>-0.05487891223646754</v>
       </c>
       <c r="D74">
-        <v>-0.03861049624545082</v>
+        <v>0.01498085227706619</v>
       </c>
       <c r="E74">
-        <v>0.007282725136126677</v>
+        <v>-0.05841447252390505</v>
       </c>
       <c r="F74">
-        <v>-0.0608430923791391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07983447615506326</v>
+      </c>
+      <c r="G74">
+        <v>-0.008949572433832004</v>
+      </c>
+      <c r="H74">
+        <v>0.01568982042773894</v>
+      </c>
+      <c r="I74">
+        <v>0.06752332670369812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2277674326849855</v>
+        <v>0.2419879058131226</v>
       </c>
       <c r="C75">
-        <v>0.08156252981754461</v>
+        <v>-0.06642365887440756</v>
       </c>
       <c r="D75">
-        <v>-0.07345307273077166</v>
+        <v>-0.003594155902167827</v>
       </c>
       <c r="E75">
-        <v>-0.009209899136989552</v>
+        <v>-0.1252174401998579</v>
       </c>
       <c r="F75">
-        <v>-0.1428194598361576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1456111836261417</v>
+      </c>
+      <c r="G75">
+        <v>0.0201512434016541</v>
+      </c>
+      <c r="H75">
+        <v>-0.007183509969545149</v>
+      </c>
+      <c r="I75">
+        <v>0.01148228994092276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2576177870254663</v>
+        <v>0.2554165824399721</v>
       </c>
       <c r="C76">
-        <v>0.1008615519453612</v>
+        <v>-0.04521978212705512</v>
       </c>
       <c r="D76">
-        <v>-0.03615605482910983</v>
+        <v>0.0309634708165871</v>
       </c>
       <c r="E76">
-        <v>0.0525033098037266</v>
+        <v>-0.1510507338329598</v>
       </c>
       <c r="F76">
-        <v>-0.1420993037454013</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1953459490713676</v>
+      </c>
+      <c r="G76">
+        <v>0.03574386865479692</v>
+      </c>
+      <c r="H76">
+        <v>0.07560153077113871</v>
+      </c>
+      <c r="I76">
+        <v>0.03118127602160138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1429343986502664</v>
+        <v>0.102869967693683</v>
       </c>
       <c r="C77">
-        <v>-0.0423601258350056</v>
+        <v>-0.08296008485005478</v>
       </c>
       <c r="D77">
-        <v>-0.08835900301188217</v>
+        <v>0.03000223687341655</v>
       </c>
       <c r="E77">
-        <v>0.02075737655918302</v>
+        <v>0.03665025201656472</v>
       </c>
       <c r="F77">
-        <v>0.2149201486148519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1677710020500319</v>
+      </c>
+      <c r="G77">
+        <v>0.2276539318470751</v>
+      </c>
+      <c r="H77">
+        <v>0.009217283244695253</v>
+      </c>
+      <c r="I77">
+        <v>0.256748683658893</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0826952919955161</v>
+        <v>0.06086097447621927</v>
       </c>
       <c r="C78">
-        <v>-0.02071776223477009</v>
+        <v>-0.06433618384740328</v>
       </c>
       <c r="D78">
-        <v>-0.08957396873754142</v>
+        <v>0.0320973299038803</v>
       </c>
       <c r="E78">
-        <v>0.04615164765266733</v>
+        <v>-0.02591959148176293</v>
       </c>
       <c r="F78">
-        <v>0.04232209755563156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07154956698333322</v>
+      </c>
+      <c r="G78">
+        <v>0.02763053652195157</v>
+      </c>
+      <c r="H78">
+        <v>-0.0299333188382295</v>
+      </c>
+      <c r="I78">
+        <v>0.04605451538104146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.129324787566137</v>
+        <v>0.1481833794666426</v>
       </c>
       <c r="C80">
-        <v>-0.1307581995665517</v>
+        <v>0.4293726015541758</v>
       </c>
       <c r="D80">
-        <v>0.4265528004090033</v>
+        <v>0.875592212539724</v>
       </c>
       <c r="E80">
-        <v>0.863721639391673</v>
+        <v>0.02418768916695297</v>
       </c>
       <c r="F80">
-        <v>0.02976928174524044</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06626812195895174</v>
+      </c>
+      <c r="G80">
+        <v>-0.05157934016362431</v>
+      </c>
+      <c r="H80">
+        <v>-0.0296446514768736</v>
+      </c>
+      <c r="I80">
+        <v>-0.08778152959985275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1665686563426846</v>
+        <v>0.1816197890776901</v>
       </c>
       <c r="C81">
-        <v>0.05911185864809054</v>
+        <v>-0.03943333036157175</v>
       </c>
       <c r="D81">
-        <v>-0.03750193318950624</v>
+        <v>0.01067362843197579</v>
       </c>
       <c r="E81">
-        <v>0.01179038298985439</v>
+        <v>-0.1018217933479092</v>
       </c>
       <c r="F81">
-        <v>-0.1545620782528858</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1436669745876102</v>
+      </c>
+      <c r="G81">
+        <v>0.04867337697198924</v>
+      </c>
+      <c r="H81">
+        <v>0.02936332686589031</v>
+      </c>
+      <c r="I81">
+        <v>0.002340177650932999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06210429701182572</v>
+        <v>0.04929919369925916</v>
       </c>
       <c r="C83">
-        <v>-0.04909740475671458</v>
+        <v>-0.05082648382693682</v>
       </c>
       <c r="D83">
-        <v>-0.07457862618284593</v>
+        <v>0.01218740397817631</v>
       </c>
       <c r="E83">
-        <v>0.005426035033759842</v>
+        <v>0.01746688774242658</v>
       </c>
       <c r="F83">
-        <v>0.01768207387580477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04320550798537558</v>
+      </c>
+      <c r="G83">
+        <v>0.02754299949630303</v>
+      </c>
+      <c r="H83">
+        <v>-0.0503141709454689</v>
+      </c>
+      <c r="I83">
+        <v>0.03957138030571256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.230339964191285</v>
+        <v>0.2383780913968988</v>
       </c>
       <c r="C85">
-        <v>0.04578039683951766</v>
+        <v>-0.0890522771614832</v>
       </c>
       <c r="D85">
-        <v>-0.06990962448399915</v>
+        <v>0.02547411852524446</v>
       </c>
       <c r="E85">
-        <v>0.0439106311646083</v>
+        <v>-0.1139693916065332</v>
       </c>
       <c r="F85">
-        <v>-0.1745663564568655</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1868019808804251</v>
+      </c>
+      <c r="G85">
+        <v>0.03949767656256434</v>
+      </c>
+      <c r="H85">
+        <v>0.01899838668507041</v>
+      </c>
+      <c r="I85">
+        <v>0.02732411745521112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02224280865152958</v>
+        <v>0.01940221332941204</v>
       </c>
       <c r="C86">
-        <v>-0.008227405724867956</v>
+        <v>-0.03667766809852917</v>
       </c>
       <c r="D86">
-        <v>-0.06430768229518129</v>
+        <v>0.01302926366907633</v>
       </c>
       <c r="E86">
-        <v>0.01657570853353646</v>
+        <v>-0.01492446422315583</v>
       </c>
       <c r="F86">
-        <v>0.08483224889799437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08756206162541694</v>
+      </c>
+      <c r="G86">
+        <v>0.05915515200019847</v>
+      </c>
+      <c r="H86">
+        <v>-0.01928129503707215</v>
+      </c>
+      <c r="I86">
+        <v>0.07520084024645153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01334272860183993</v>
+        <v>0.02374341448847868</v>
       </c>
       <c r="C87">
-        <v>0.02294950752260405</v>
+        <v>0.009257590558375248</v>
       </c>
       <c r="D87">
-        <v>0.04200603236045855</v>
+        <v>-0.001324561389405621</v>
       </c>
       <c r="E87">
-        <v>-0.01728207323697995</v>
+        <v>0.004594417715643764</v>
       </c>
       <c r="F87">
-        <v>0.1062230660937499</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1064879804710585</v>
+      </c>
+      <c r="G87">
+        <v>0.008747727649696826</v>
+      </c>
+      <c r="H87">
+        <v>0.01250607977721598</v>
+      </c>
+      <c r="I87">
+        <v>0.0627853192124149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01806163410418791</v>
+        <v>0.03224105936783718</v>
       </c>
       <c r="C88">
-        <v>0.009076077869898769</v>
+        <v>0.007824810627871402</v>
       </c>
       <c r="D88">
-        <v>0.005997032590956059</v>
+        <v>0.00107696908724368</v>
       </c>
       <c r="E88">
-        <v>0.01858646058013076</v>
+        <v>-0.008215033807581255</v>
       </c>
       <c r="F88">
-        <v>-0.005915420248982658</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.005024396952266343</v>
+      </c>
+      <c r="G88">
+        <v>-0.002591837164943386</v>
+      </c>
+      <c r="H88">
+        <v>-0.05898092693009185</v>
+      </c>
+      <c r="I88">
+        <v>0.008475853813840823</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.1097754137916199</v>
+        <v>0.1474720510868454</v>
       </c>
       <c r="C89">
-        <v>0.1045789658895974</v>
+        <v>0.3169820305514092</v>
       </c>
       <c r="D89">
-        <v>0.286268428166885</v>
+        <v>-0.1995797810483392</v>
       </c>
       <c r="E89">
-        <v>-0.1710321259758836</v>
+        <v>0.1002790628572493</v>
       </c>
       <c r="F89">
-        <v>0.04172097535702431</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0213628554513142</v>
+      </c>
+      <c r="G89">
+        <v>0.0928618836505046</v>
+      </c>
+      <c r="H89">
+        <v>-0.02300981475060727</v>
+      </c>
+      <c r="I89">
+        <v>0.04285747958278891</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.09143591772121655</v>
+        <v>0.1037390055515237</v>
       </c>
       <c r="C90">
-        <v>0.09812341876883944</v>
+        <v>0.2781385910069247</v>
       </c>
       <c r="D90">
-        <v>0.2726586445137526</v>
+        <v>-0.153575649967492</v>
       </c>
       <c r="E90">
-        <v>-0.1040109299235676</v>
+        <v>0.08538590110084439</v>
       </c>
       <c r="F90">
-        <v>0.0467080844124363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.005180868782094364</v>
+      </c>
+      <c r="G90">
+        <v>0.0792527276556854</v>
+      </c>
+      <c r="H90">
+        <v>-0.01393996404922559</v>
+      </c>
+      <c r="I90">
+        <v>0.0006149934211632777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2894357938359289</v>
+        <v>0.2822563374434061</v>
       </c>
       <c r="C91">
-        <v>0.05789144298822974</v>
+        <v>-0.09931500704072557</v>
       </c>
       <c r="D91">
-        <v>-0.08726371813772138</v>
+        <v>0.02466398176447477</v>
       </c>
       <c r="E91">
-        <v>0.03846396629042383</v>
+        <v>-0.1202842772215527</v>
       </c>
       <c r="F91">
-        <v>-0.2492458863829374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2552935479304853</v>
+      </c>
+      <c r="G91">
+        <v>0.06482024789737288</v>
+      </c>
+      <c r="H91">
+        <v>0.05556545334857407</v>
+      </c>
+      <c r="I91">
+        <v>0.02374219748985235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1256867149693821</v>
+        <v>0.1870737827150715</v>
       </c>
       <c r="C92">
-        <v>0.05671149480396627</v>
+        <v>0.2991371001905809</v>
       </c>
       <c r="D92">
-        <v>0.3277710928541996</v>
+        <v>-0.1442208057649568</v>
       </c>
       <c r="E92">
-        <v>-0.1167586517737692</v>
+        <v>0.1151335862545464</v>
       </c>
       <c r="F92">
-        <v>-0.01798774781981352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09394555539745487</v>
+      </c>
+      <c r="G92">
+        <v>0.2200086716828131</v>
+      </c>
+      <c r="H92">
+        <v>-0.07060111253265909</v>
+      </c>
+      <c r="I92">
+        <v>-0.004662553671374241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.09519079947847468</v>
+        <v>0.130914476275849</v>
       </c>
       <c r="C93">
-        <v>0.09841373985943198</v>
+        <v>0.3290960027573914</v>
       </c>
       <c r="D93">
-        <v>0.3391864720638206</v>
+        <v>-0.1925935739086189</v>
       </c>
       <c r="E93">
-        <v>-0.1475947084879368</v>
+        <v>0.1309212488766929</v>
       </c>
       <c r="F93">
-        <v>-0.02689137384692722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03504342052543587</v>
+      </c>
+      <c r="G93">
+        <v>0.01707741416520841</v>
+      </c>
+      <c r="H93">
+        <v>-0.04775750384288357</v>
+      </c>
+      <c r="I93">
+        <v>-0.04538205048897235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2735527001651436</v>
+        <v>0.299273676452383</v>
       </c>
       <c r="C94">
-        <v>0.0926275547266006</v>
+        <v>-0.03525010447250117</v>
       </c>
       <c r="D94">
-        <v>0.0220821574091249</v>
+        <v>-0.02325410627889023</v>
       </c>
       <c r="E94">
-        <v>-0.006104540186564575</v>
+        <v>-0.1324721945658826</v>
       </c>
       <c r="F94">
-        <v>-0.2081162095164187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2707879978726068</v>
+      </c>
+      <c r="G94">
+        <v>0.09351863537283135</v>
+      </c>
+      <c r="H94">
+        <v>0.2145184838374183</v>
+      </c>
+      <c r="I94">
+        <v>0.0355092364194735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1520759421187236</v>
+        <v>0.125972126350221</v>
       </c>
       <c r="C95">
-        <v>-0.009849210352045426</v>
+        <v>-0.1137138714403061</v>
       </c>
       <c r="D95">
-        <v>-0.1846413775096868</v>
+        <v>-0.03857568940658211</v>
       </c>
       <c r="E95">
-        <v>0.003185245402634223</v>
+        <v>-0.04268517944680004</v>
       </c>
       <c r="F95">
-        <v>-0.4701510402247978</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08415170775227095</v>
+      </c>
+      <c r="G95">
+        <v>-0.08797997273959413</v>
+      </c>
+      <c r="H95">
+        <v>-0.8762893453503537</v>
+      </c>
+      <c r="I95">
+        <v>-0.3088370858793977</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2217255718796312</v>
+        <v>0.2244339501161567</v>
       </c>
       <c r="C98">
-        <v>0.03877521079579702</v>
+        <v>-0.003903456294702001</v>
       </c>
       <c r="D98">
-        <v>0.01356621232189513</v>
+        <v>-0.07351099385760107</v>
       </c>
       <c r="E98">
-        <v>-0.08915115151309067</v>
+        <v>0.01818102166000706</v>
       </c>
       <c r="F98">
-        <v>0.07658555318980381</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1882336334475831</v>
+      </c>
+      <c r="G98">
+        <v>-0.3824956974761298</v>
+      </c>
+      <c r="H98">
+        <v>0.05760530857202083</v>
+      </c>
+      <c r="I98">
+        <v>-0.03854476959589065</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.004000105497795751</v>
+        <v>0.01370196367138414</v>
       </c>
       <c r="C101">
-        <v>0.02129927455916752</v>
+        <v>-0.02416759257971519</v>
       </c>
       <c r="D101">
-        <v>-0.06515902839886274</v>
+        <v>0.01411739494684211</v>
       </c>
       <c r="E101">
-        <v>0.03970731653218296</v>
+        <v>-0.03730434694468</v>
       </c>
       <c r="F101">
-        <v>0.02566775819173407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07923928393008582</v>
+      </c>
+      <c r="G101">
+        <v>0.112300673961505</v>
+      </c>
+      <c r="H101">
+        <v>-0.008590852750412301</v>
+      </c>
+      <c r="I101">
+        <v>-0.120135856921459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09626154956050269</v>
+        <v>0.1140146782663955</v>
       </c>
       <c r="C102">
-        <v>0.02312605338469491</v>
+        <v>-0.03897276005487001</v>
       </c>
       <c r="D102">
-        <v>-0.04523858425604248</v>
+        <v>0.01876775280976337</v>
       </c>
       <c r="E102">
-        <v>0.03678839196967626</v>
+        <v>-0.05715454054440603</v>
       </c>
       <c r="F102">
-        <v>-0.09471552129644575</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1076397722670593</v>
+      </c>
+      <c r="G102">
+        <v>0.01975508658338715</v>
+      </c>
+      <c r="H102">
+        <v>0.004438769855830625</v>
+      </c>
+      <c r="I102">
+        <v>0.02027293547583493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02030996019729783</v>
+        <v>0.02747032610763235</v>
       </c>
       <c r="C103">
-        <v>0.01057240576755779</v>
+        <v>-0.005908926643695175</v>
       </c>
       <c r="D103">
-        <v>-0.006606222633070486</v>
+        <v>0.01131028939584824</v>
       </c>
       <c r="E103">
-        <v>0.008081507737804089</v>
+        <v>-0.02021185485650353</v>
       </c>
       <c r="F103">
-        <v>-0.02201828922431491</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01791370158993329</v>
+      </c>
+      <c r="G103">
+        <v>0.01724944217260075</v>
+      </c>
+      <c r="H103">
+        <v>-0.008241519102482031</v>
+      </c>
+      <c r="I103">
+        <v>0.01733746657972957</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
